--- a/medicine/Psychotrope/Franken_Bräu/Franken_Bräu.xlsx
+++ b/medicine/Psychotrope/Franken_Bräu/Franken_Bräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Franken_Br%C3%A4u</t>
+          <t>Franken_Bräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Franken Bräu est une brasserie à Mitwitz, en Allemagne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Franken_Br%C3%A4u</t>
+          <t>Franken_Bräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la brasserie commence en 1520 avec le droit de brasser dans une ferme à Mitsitz. La zone de vente du Franken Bräu s'étend rapidement aux territoires voisins (Duché de Saxe-Cobourg et Gotha, Meiningen, Thuringe).
-Après la Seconde Guerre mondiale, la brasserie a perdu 70% de son marché de vente[1].
+Après la Seconde Guerre mondiale, la brasserie a perdu 70% de son marché de vente.
 Rainer Mohr, qui rachète l'entreprise à la famille Bauer (Lorenz et Elisabeth Bauer), est le nouveau propriétaire depuis 2015.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Franken_Br%C3%A4u</t>
+          <t>Franken_Bräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilsner, Festbier, Kellerbier, Schwarzbier, Märzen, Urhell, Urtrunk, Schädelsprenger, Weißbier, Radler, NaturRadler. En saison, il y a une bock et une bière d'hiver.
 </t>
